--- a/모임페이지 데이터.xlsx
+++ b/모임페이지 데이터.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/siwon/Desktop/teamproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C86CEE3-1339-2C46-A2BF-3852262F3AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4DFB7BF-748C-724B-BFE3-D1EE7808BCDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21280" yWindow="500" windowWidth="14540" windowHeight="19960" xr2:uid="{32F3794B-D704-F74E-8992-7C4D9C1D6ECA}"/>
+    <workbookView xWindow="9320" yWindow="500" windowWidth="14540" windowHeight="19920" xr2:uid="{32F3794B-D704-F74E-8992-7C4D9C1D6ECA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
